--- a/5 семинар/Семинар5_задание2-1.xlsx
+++ b/5 семинар/Семинар5_задание2-1.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SnowCat\Documents\Geekbrains\Аналитика Excel\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александра\Documents\Обучение-Разработчик\Специализация - Аналитик\1 четверть\GB4623_A_Basics_of_Excel\5 семинар\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1C6FA-EE07-4D1C-A786-76DD313C7A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EAST" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -79,11 +79,14 @@
   <si>
     <t>Семинар5_Задание2-1</t>
   </si>
+  <si>
+    <t>На новом листе - Данные - Консолидация - Функция (Максимум) - Добавить - Галочки все кроме поседней</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -96,7 +99,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +118,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -128,11 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -148,6 +158,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63943</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3271520" y="523240"/>
+          <a:ext cx="5113463" cy="2225233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,23 +546,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -545,23 +581,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -737,26 +756,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -773,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -801,7 +820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -815,7 +834,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,7 +848,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,7 +862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -857,7 +876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +918,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -913,7 +932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,7 +946,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -941,7 +960,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,7 +974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1018,20 +1037,1563 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B543CA02-FD0A-4BFD-9EBD-CE7DB88BF17A}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <f>[1]WEST!$B$12</f>
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <f>[1]WEST!$C$12</f>
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <f>[1]WEST!$D$12</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f>MAX(C2)</f>
+        <v>131</v>
+      </c>
+      <c r="D3">
+        <f>MAX(D2)</f>
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <f>MAX(E2)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f>[1]WEST!$B$13</f>
+        <v>294</v>
+      </c>
+      <c r="D4">
+        <f>[1]WEST!$C$13</f>
+        <v>211</v>
+      </c>
+      <c r="E4">
+        <f>[1]WEST!$D$13</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>[1]WEST!$B$14</f>
+        <v>146</v>
+      </c>
+      <c r="D5">
+        <f>[1]WEST!$C$14</f>
+        <v>125</v>
+      </c>
+      <c r="E5">
+        <f>[1]WEST!$D$14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>[1]WEST!$B$16</f>
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <f>[1]WEST!$C$16</f>
+        <v>241</v>
+      </c>
+      <c r="E6">
+        <f>[1]WEST!$D$16</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f>MAX(C4:C6)</f>
+        <v>294</v>
+      </c>
+      <c r="D7">
+        <f>MAX(D4:D6)</f>
+        <v>241</v>
+      </c>
+      <c r="E7">
+        <f>MAX(E4:E6)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <f>EAST!$B$2</f>
+        <v>205</v>
+      </c>
+      <c r="D8">
+        <f>EAST!$C$2</f>
+        <v>263</v>
+      </c>
+      <c r="E8">
+        <f>EAST!$D$2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>EAST!$B$8</f>
+        <v>141</v>
+      </c>
+      <c r="D9">
+        <f>EAST!$C$8</f>
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <f>EAST!$D$8</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>EAST!$B$9</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>EAST!$C$9</f>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f>EAST!$D$9</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>EAST!$B$10</f>
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <f>EAST!$C$10</f>
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <f>EAST!$D$10</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>EAST!$B$15</f>
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <f>EAST!$C$15</f>
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <f>EAST!$D$15</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f>[1]WEST!$B$2</f>
+        <v>173</v>
+      </c>
+      <c r="D13">
+        <f>[1]WEST!$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>[1]WEST!$D$2</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>[1]WEST!$B$3</f>
+        <v>208</v>
+      </c>
+      <c r="D14">
+        <f>[1]WEST!$C$3</f>
+        <v>201</v>
+      </c>
+      <c r="E14">
+        <f>[1]WEST!$D$3</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>[1]WEST!$B$15</f>
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <f>[1]WEST!$C$15</f>
+        <v>214</v>
+      </c>
+      <c r="E15">
+        <f>[1]WEST!$D$15</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>[1]WEST!$B$17</f>
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <f>[1]WEST!$C$17</f>
+        <v>227</v>
+      </c>
+      <c r="E16">
+        <f>[1]WEST!$D$17</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>[1]WEST!$B$18</f>
+        <v>314</v>
+      </c>
+      <c r="D17">
+        <f>[1]WEST!$C$18</f>
+        <v>189</v>
+      </c>
+      <c r="E17">
+        <f>[1]WEST!$D$18</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>MAX(C8:C17)</f>
+        <v>314</v>
+      </c>
+      <c r="D18">
+        <f>MAX(D8:D17)</f>
+        <v>263</v>
+      </c>
+      <c r="E18">
+        <f>MAX(E8:E17)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <f>EAST!$B$3</f>
+        <v>164</v>
+      </c>
+      <c r="D19">
+        <f>EAST!$C$3</f>
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f>EAST!$D$3</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>EAST!$B$11</f>
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <f>EAST!$C$11</f>
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <f>EAST!$D$11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <f>[1]WEST!$B$4</f>
+        <v>176</v>
+      </c>
+      <c r="D21">
+        <f>[1]WEST!$C$4</f>
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <f>[1]WEST!$D$4</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>[1]WEST!$B$5</f>
+        <v>190</v>
+      </c>
+      <c r="D22">
+        <f>[1]WEST!$C$5</f>
+        <v>249</v>
+      </c>
+      <c r="E22">
+        <f>[1]WEST!$D$5</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>[1]WEST!$B$22</f>
+        <v>353</v>
+      </c>
+      <c r="D23">
+        <f>[1]WEST!$C$22</f>
+        <v>151</v>
+      </c>
+      <c r="E23">
+        <f>[1]WEST!$D$22</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>MAX(C19:C23)</f>
+        <v>353</v>
+      </c>
+      <c r="D24">
+        <f>MAX(D19:D23)</f>
+        <v>249</v>
+      </c>
+      <c r="E24">
+        <f>MAX(E19:E23)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <f>EAST!$B$4</f>
+        <v>278</v>
+      </c>
+      <c r="D25">
+        <f>EAST!$C$4</f>
+        <v>177</v>
+      </c>
+      <c r="E25">
+        <f>EAST!$D$4</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <f>[1]WEST!$B$19</f>
+        <v>189</v>
+      </c>
+      <c r="D26">
+        <f>[1]WEST!$C$19</f>
+        <v>154</v>
+      </c>
+      <c r="E26">
+        <f>[1]WEST!$D$19</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>[1]WEST!$B$20</f>
+        <v>313</v>
+      </c>
+      <c r="D27">
+        <f>[1]WEST!$C$20</f>
+        <v>182</v>
+      </c>
+      <c r="E27">
+        <f>[1]WEST!$D$20</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>[1]WEST!$B$21</f>
+        <v>389</v>
+      </c>
+      <c r="D28">
+        <f>[1]WEST!$C$21</f>
+        <v>247</v>
+      </c>
+      <c r="E28">
+        <f>[1]WEST!$D$21</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>[1]WEST!$B$23</f>
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <f>[1]WEST!$C$23</f>
+        <v>162</v>
+      </c>
+      <c r="E29">
+        <f>[1]WEST!$D$23</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f>MAX(C25:C29)</f>
+        <v>389</v>
+      </c>
+      <c r="D30">
+        <f>MAX(D25:D29)</f>
+        <v>247</v>
+      </c>
+      <c r="E30">
+        <f>MAX(E25:E29)</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <f>EAST!$B$5</f>
+        <v>156</v>
+      </c>
+      <c r="D31">
+        <f>EAST!$C$5</f>
+        <v>214</v>
+      </c>
+      <c r="E31">
+        <f>EAST!$D$5</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>EAST!$B$6</f>
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <f>EAST!$C$6</f>
+        <v>134</v>
+      </c>
+      <c r="E32">
+        <f>EAST!$D$6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>EAST!$B$7</f>
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <f>EAST!$C$7</f>
+        <v>256</v>
+      </c>
+      <c r="E33">
+        <f>EAST!$D$7</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>EAST!$B$17</f>
+        <v>-5</v>
+      </c>
+      <c r="D34">
+        <f>EAST!$C$17</f>
+        <v>159</v>
+      </c>
+      <c r="E34">
+        <f>EAST!$D$17</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <f>[1]WEST!$B$6</f>
+        <v>162</v>
+      </c>
+      <c r="D35">
+        <f>[1]WEST!$C$6</f>
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <f>[1]WEST!$D$6</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>[1]WEST!$B$7</f>
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <f>[1]WEST!$C$7</f>
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <f>[1]WEST!$D$7</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>[1]WEST!$B$8</f>
+        <v>112</v>
+      </c>
+      <c r="D37">
+        <f>[1]WEST!$C$8</f>
+        <v>284</v>
+      </c>
+      <c r="E37">
+        <f>[1]WEST!$D$8</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f>[1]WEST!$B$24</f>
+        <v>173</v>
+      </c>
+      <c r="D38">
+        <f>[1]WEST!$C$24</f>
+        <v>153</v>
+      </c>
+      <c r="E38">
+        <f>[1]WEST!$D$24</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f>MAX(C31:C38)</f>
+        <v>173</v>
+      </c>
+      <c r="D39">
+        <f>MAX(D31:D38)</f>
+        <v>284</v>
+      </c>
+      <c r="E39">
+        <f>MAX(E31:E38)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <f>EAST!$B$12</f>
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <f>EAST!$C$12</f>
+        <v>120</v>
+      </c>
+      <c r="E40">
+        <f>EAST!$D$12</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>EAST!$B$13</f>
+        <v>197</v>
+      </c>
+      <c r="D41">
+        <f>EAST!$C$13</f>
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <f>EAST!$D$13</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>EAST!$B$14</f>
+        <v>221</v>
+      </c>
+      <c r="D42">
+        <f>EAST!$C$14</f>
+        <v>121</v>
+      </c>
+      <c r="E42">
+        <f>EAST!$D$14</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>EAST!$B$18</f>
+        <v>136</v>
+      </c>
+      <c r="D43">
+        <f>EAST!$C$18</f>
+        <v>152</v>
+      </c>
+      <c r="E43">
+        <f>EAST!$D$18</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f>MAX(C40:C43)</f>
+        <v>221</v>
+      </c>
+      <c r="D44">
+        <f>MAX(D40:D43)</f>
+        <v>152</v>
+      </c>
+      <c r="E44">
+        <f>MAX(E40:E43)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f>EAST!$B$16</f>
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <f>EAST!$C$16</f>
+        <v>250</v>
+      </c>
+      <c r="E45">
+        <f>EAST!$D$16</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <f>[1]WEST!$B$9</f>
+        <v>154</v>
+      </c>
+      <c r="D46">
+        <f>[1]WEST!$C$9</f>
+        <v>217</v>
+      </c>
+      <c r="E46">
+        <f>[1]WEST!$D$9</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f>[1]WEST!$B$10</f>
+        <v>152</v>
+      </c>
+      <c r="D47">
+        <f>[1]WEST!$C$10</f>
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <f>[1]WEST!$D$10</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f>[1]WEST!$B$11</f>
+        <v>277</v>
+      </c>
+      <c r="D48">
+        <f>[1]WEST!$C$11</f>
+        <v>183</v>
+      </c>
+      <c r="E48">
+        <f>[1]WEST!$D$11</f>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <f>MAX(C45:C48)</f>
+        <v>277</v>
+      </c>
+      <c r="D49">
+        <f>MAX(D45:D48)</f>
+        <v>250</v>
+      </c>
+      <c r="E49">
+        <f>MAX(E45:E48)</f>
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate function="max" leftLabels="1" topLabels="1" link="1">
+    <dataRefs count="2">
+      <dataRef ref="A1:D18" sheet="EAST"/>
+      <dataRef ref="A1:D24" sheet="WEST" r:id="rId1"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <f>[1]WEST!$B$12</f>
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <f>[1]WEST!$C$12</f>
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <f>[1]WEST!$D$12</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f>MAX(C2)</f>
+        <v>131</v>
+      </c>
+      <c r="D3">
+        <f>MAX(D2)</f>
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <f>MAX(E2)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f>[1]WEST!$B$13</f>
+        <v>294</v>
+      </c>
+      <c r="D4">
+        <f>[1]WEST!$C$13</f>
+        <v>211</v>
+      </c>
+      <c r="E4">
+        <f>[1]WEST!$D$13</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>[1]WEST!$B$14</f>
+        <v>146</v>
+      </c>
+      <c r="D5">
+        <f>[1]WEST!$C$14</f>
+        <v>125</v>
+      </c>
+      <c r="E5">
+        <f>[1]WEST!$D$14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>[1]WEST!$B$16</f>
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <f>[1]WEST!$C$16</f>
+        <v>241</v>
+      </c>
+      <c r="E6">
+        <f>[1]WEST!$D$16</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f>MAX(C4:C6)</f>
+        <v>294</v>
+      </c>
+      <c r="D7">
+        <f>MAX(D4:D6)</f>
+        <v>241</v>
+      </c>
+      <c r="E7">
+        <f>MAX(E4:E6)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <f>EAST!$B$2</f>
+        <v>205</v>
+      </c>
+      <c r="D8">
+        <f>EAST!$C$2</f>
+        <v>263</v>
+      </c>
+      <c r="E8">
+        <f>EAST!$D$2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>EAST!$B$8</f>
+        <v>141</v>
+      </c>
+      <c r="D9">
+        <f>EAST!$C$8</f>
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <f>EAST!$D$8</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>EAST!$B$9</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>EAST!$C$9</f>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f>EAST!$D$9</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>EAST!$B$10</f>
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <f>EAST!$C$10</f>
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <f>EAST!$D$10</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>EAST!$B$15</f>
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <f>EAST!$C$15</f>
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <f>EAST!$D$15</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f>[1]WEST!$B$2</f>
+        <v>173</v>
+      </c>
+      <c r="D13">
+        <f>[1]WEST!$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>[1]WEST!$D$2</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>[1]WEST!$B$3</f>
+        <v>208</v>
+      </c>
+      <c r="D14">
+        <f>[1]WEST!$C$3</f>
+        <v>201</v>
+      </c>
+      <c r="E14">
+        <f>[1]WEST!$D$3</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>[1]WEST!$B$15</f>
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <f>[1]WEST!$C$15</f>
+        <v>214</v>
+      </c>
+      <c r="E15">
+        <f>[1]WEST!$D$15</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>[1]WEST!$B$17</f>
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <f>[1]WEST!$C$17</f>
+        <v>227</v>
+      </c>
+      <c r="E16">
+        <f>[1]WEST!$D$17</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>[1]WEST!$B$18</f>
+        <v>314</v>
+      </c>
+      <c r="D17">
+        <f>[1]WEST!$C$18</f>
+        <v>189</v>
+      </c>
+      <c r="E17">
+        <f>[1]WEST!$D$18</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>MAX(C8:C17)</f>
+        <v>314</v>
+      </c>
+      <c r="D18">
+        <f>MAX(D8:D17)</f>
+        <v>263</v>
+      </c>
+      <c r="E18">
+        <f>MAX(E8:E17)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <f>EAST!$B$3</f>
+        <v>164</v>
+      </c>
+      <c r="D19">
+        <f>EAST!$C$3</f>
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f>EAST!$D$3</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>EAST!$B$11</f>
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <f>EAST!$C$11</f>
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <f>EAST!$D$11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <f>[1]WEST!$B$4</f>
+        <v>176</v>
+      </c>
+      <c r="D21">
+        <f>[1]WEST!$C$4</f>
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <f>[1]WEST!$D$4</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>[1]WEST!$B$5</f>
+        <v>190</v>
+      </c>
+      <c r="D22">
+        <f>[1]WEST!$C$5</f>
+        <v>249</v>
+      </c>
+      <c r="E22">
+        <f>[1]WEST!$D$5</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>[1]WEST!$B$22</f>
+        <v>353</v>
+      </c>
+      <c r="D23">
+        <f>[1]WEST!$C$22</f>
+        <v>151</v>
+      </c>
+      <c r="E23">
+        <f>[1]WEST!$D$22</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>MAX(C19:C23)</f>
+        <v>353</v>
+      </c>
+      <c r="D24">
+        <f>MAX(D19:D23)</f>
+        <v>249</v>
+      </c>
+      <c r="E24">
+        <f>MAX(E19:E23)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <f>EAST!$B$4</f>
+        <v>278</v>
+      </c>
+      <c r="D25">
+        <f>EAST!$C$4</f>
+        <v>177</v>
+      </c>
+      <c r="E25">
+        <f>EAST!$D$4</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <f>[1]WEST!$B$19</f>
+        <v>189</v>
+      </c>
+      <c r="D26">
+        <f>[1]WEST!$C$19</f>
+        <v>154</v>
+      </c>
+      <c r="E26">
+        <f>[1]WEST!$D$19</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>[1]WEST!$B$20</f>
+        <v>313</v>
+      </c>
+      <c r="D27">
+        <f>[1]WEST!$C$20</f>
+        <v>182</v>
+      </c>
+      <c r="E27">
+        <f>[1]WEST!$D$20</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>[1]WEST!$B$21</f>
+        <v>389</v>
+      </c>
+      <c r="D28">
+        <f>[1]WEST!$C$21</f>
+        <v>247</v>
+      </c>
+      <c r="E28">
+        <f>[1]WEST!$D$21</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>[1]WEST!$B$23</f>
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <f>[1]WEST!$C$23</f>
+        <v>162</v>
+      </c>
+      <c r="E29">
+        <f>[1]WEST!$D$23</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f>MAX(C25:C29)</f>
+        <v>389</v>
+      </c>
+      <c r="D30">
+        <f>MAX(D25:D29)</f>
+        <v>247</v>
+      </c>
+      <c r="E30">
+        <f>MAX(E25:E29)</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <f>EAST!$B$5</f>
+        <v>156</v>
+      </c>
+      <c r="D31">
+        <f>EAST!$C$5</f>
+        <v>214</v>
+      </c>
+      <c r="E31">
+        <f>EAST!$D$5</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>EAST!$B$6</f>
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <f>EAST!$C$6</f>
+        <v>134</v>
+      </c>
+      <c r="E32">
+        <f>EAST!$D$6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>EAST!$B$7</f>
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <f>EAST!$C$7</f>
+        <v>256</v>
+      </c>
+      <c r="E33">
+        <f>EAST!$D$7</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>EAST!$B$17</f>
+        <v>-5</v>
+      </c>
+      <c r="D34">
+        <f>EAST!$C$17</f>
+        <v>159</v>
+      </c>
+      <c r="E34">
+        <f>EAST!$D$17</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <f>[1]WEST!$B$6</f>
+        <v>162</v>
+      </c>
+      <c r="D35">
+        <f>[1]WEST!$C$6</f>
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <f>[1]WEST!$D$6</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>[1]WEST!$B$7</f>
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <f>[1]WEST!$C$7</f>
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <f>[1]WEST!$D$7</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>[1]WEST!$B$8</f>
+        <v>112</v>
+      </c>
+      <c r="D37">
+        <f>[1]WEST!$C$8</f>
+        <v>284</v>
+      </c>
+      <c r="E37">
+        <f>[1]WEST!$D$8</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f>[1]WEST!$B$24</f>
+        <v>173</v>
+      </c>
+      <c r="D38">
+        <f>[1]WEST!$C$24</f>
+        <v>153</v>
+      </c>
+      <c r="E38">
+        <f>[1]WEST!$D$24</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f>MAX(C31:C38)</f>
+        <v>173</v>
+      </c>
+      <c r="D39">
+        <f>MAX(D31:D38)</f>
+        <v>284</v>
+      </c>
+      <c r="E39">
+        <f>MAX(E31:E38)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <f>EAST!$B$12</f>
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <f>EAST!$C$12</f>
+        <v>120</v>
+      </c>
+      <c r="E40">
+        <f>EAST!$D$12</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>EAST!$B$13</f>
+        <v>197</v>
+      </c>
+      <c r="D41">
+        <f>EAST!$C$13</f>
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <f>EAST!$D$13</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>EAST!$B$14</f>
+        <v>221</v>
+      </c>
+      <c r="D42">
+        <f>EAST!$C$14</f>
+        <v>121</v>
+      </c>
+      <c r="E42">
+        <f>EAST!$D$14</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>EAST!$B$18</f>
+        <v>136</v>
+      </c>
+      <c r="D43">
+        <f>EAST!$C$18</f>
+        <v>152</v>
+      </c>
+      <c r="E43">
+        <f>EAST!$D$18</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f>MAX(C40:C43)</f>
+        <v>221</v>
+      </c>
+      <c r="D44">
+        <f>MAX(D40:D43)</f>
+        <v>152</v>
+      </c>
+      <c r="E44">
+        <f>MAX(E40:E43)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f>EAST!$B$16</f>
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <f>EAST!$C$16</f>
+        <v>250</v>
+      </c>
+      <c r="E45">
+        <f>EAST!$D$16</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <f>[1]WEST!$B$9</f>
+        <v>154</v>
+      </c>
+      <c r="D46">
+        <f>[1]WEST!$C$9</f>
+        <v>217</v>
+      </c>
+      <c r="E46">
+        <f>[1]WEST!$D$9</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f>[1]WEST!$B$10</f>
+        <v>152</v>
+      </c>
+      <c r="D47">
+        <f>[1]WEST!$C$10</f>
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <f>[1]WEST!$D$10</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f>[1]WEST!$B$11</f>
+        <v>277</v>
+      </c>
+      <c r="D48">
+        <f>[1]WEST!$C$11</f>
+        <v>183</v>
+      </c>
+      <c r="E48">
+        <f>[1]WEST!$D$11</f>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <f>MAX(C45:C48)</f>
+        <v>277</v>
+      </c>
+      <c r="D49">
+        <f>MAX(D45:D48)</f>
+        <v>250</v>
+      </c>
+      <c r="E49">
+        <f>MAX(E45:E48)</f>
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate function="max" topLabels="1" link="1">
+    <dataRefs count="2">
+      <dataRef ref="A1:D18" sheet="EAST"/>
+      <dataRef ref="A1:D24" sheet="WEST" r:id="rId1"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +2618,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +2632,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +2646,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +2660,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1112,7 +2674,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +2688,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +2702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1153,6 +2715,27 @@
       <c r="D9">
         <v>372</v>
       </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate function="max" leftLabels="1" topLabels="1">
@@ -1165,778 +2748,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454AC47-1E6B-4B16-9F77-8496A4220EF8}">
-  <dimension ref="A1:E49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <f>[1]WEST!$B$12</f>
-        <v>131</v>
-      </c>
-      <c r="D2">
-        <f>[1]WEST!$C$12</f>
-        <v>71</v>
-      </c>
-      <c r="E2">
-        <f>[1]WEST!$D$12</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <f>MAX(C2)</f>
-        <v>131</v>
-      </c>
-      <c r="D3">
-        <f>MAX(D2)</f>
-        <v>71</v>
-      </c>
-      <c r="E3">
-        <f>MAX(E2)</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <f>[1]WEST!$B$13</f>
-        <v>294</v>
-      </c>
-      <c r="D4">
-        <f>[1]WEST!$C$13</f>
-        <v>211</v>
-      </c>
-      <c r="E4">
-        <f>[1]WEST!$D$13</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C5">
-        <f>[1]WEST!$B$14</f>
-        <v>146</v>
-      </c>
-      <c r="D5">
-        <f>[1]WEST!$C$14</f>
-        <v>125</v>
-      </c>
-      <c r="E5">
-        <f>[1]WEST!$D$14</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <f>[1]WEST!$B$16</f>
-        <v>157</v>
-      </c>
-      <c r="D6">
-        <f>[1]WEST!$C$16</f>
-        <v>241</v>
-      </c>
-      <c r="E6">
-        <f>[1]WEST!$D$16</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <f>MAX(C4:C6)</f>
-        <v>294</v>
-      </c>
-      <c r="D7">
-        <f>MAX(D4:D6)</f>
-        <v>241</v>
-      </c>
-      <c r="E7">
-        <f>MAX(E4:E6)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <f>EAST!$B$2</f>
-        <v>205</v>
-      </c>
-      <c r="D8">
-        <f>EAST!$C$2</f>
-        <v>263</v>
-      </c>
-      <c r="E8">
-        <f>EAST!$D$2</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <f>EAST!$B$8</f>
-        <v>141</v>
-      </c>
-      <c r="D9">
-        <f>EAST!$C$8</f>
-        <v>87</v>
-      </c>
-      <c r="E9">
-        <f>EAST!$D$8</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>EAST!$B$9</f>
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <f>EAST!$C$9</f>
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <f>EAST!$D$9</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <f>EAST!$B$10</f>
-        <v>44</v>
-      </c>
-      <c r="D11">
-        <f>EAST!$C$10</f>
-        <v>47</v>
-      </c>
-      <c r="E11">
-        <f>EAST!$D$10</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <f>EAST!$B$15</f>
-        <v>84</v>
-      </c>
-      <c r="D12">
-        <f>EAST!$C$15</f>
-        <v>103</v>
-      </c>
-      <c r="E12">
-        <f>EAST!$D$15</f>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <f>[1]WEST!$B$2</f>
-        <v>173</v>
-      </c>
-      <c r="D13">
-        <f>[1]WEST!$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f>[1]WEST!$D$2</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <f>[1]WEST!$B$3</f>
-        <v>208</v>
-      </c>
-      <c r="D14">
-        <f>[1]WEST!$C$3</f>
-        <v>201</v>
-      </c>
-      <c r="E14">
-        <f>[1]WEST!$D$3</f>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <f>[1]WEST!$B$15</f>
-        <v>115</v>
-      </c>
-      <c r="D15">
-        <f>[1]WEST!$C$15</f>
-        <v>214</v>
-      </c>
-      <c r="E15">
-        <f>[1]WEST!$D$15</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <f>[1]WEST!$B$17</f>
-        <v>125</v>
-      </c>
-      <c r="D16">
-        <f>[1]WEST!$C$17</f>
-        <v>227</v>
-      </c>
-      <c r="E16">
-        <f>[1]WEST!$D$17</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <f>[1]WEST!$B$18</f>
-        <v>314</v>
-      </c>
-      <c r="D17">
-        <f>[1]WEST!$C$18</f>
-        <v>189</v>
-      </c>
-      <c r="E17">
-        <f>[1]WEST!$D$18</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f>MAX(C8:C17)</f>
-        <v>314</v>
-      </c>
-      <c r="D18">
-        <f>MAX(D8:D17)</f>
-        <v>263</v>
-      </c>
-      <c r="E18">
-        <f>MAX(E8:E17)</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <f>EAST!$B$3</f>
-        <v>164</v>
-      </c>
-      <c r="D19">
-        <f>EAST!$C$3</f>
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <f>EAST!$D$3</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <f>EAST!$B$11</f>
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <f>EAST!$C$11</f>
-        <v>81</v>
-      </c>
-      <c r="E20">
-        <f>EAST!$D$11</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <f>[1]WEST!$B$4</f>
-        <v>176</v>
-      </c>
-      <c r="D21">
-        <f>[1]WEST!$C$4</f>
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <f>[1]WEST!$D$4</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <f>[1]WEST!$B$5</f>
-        <v>190</v>
-      </c>
-      <c r="D22">
-        <f>[1]WEST!$C$5</f>
-        <v>249</v>
-      </c>
-      <c r="E22">
-        <f>[1]WEST!$D$5</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <f>[1]WEST!$B$22</f>
-        <v>353</v>
-      </c>
-      <c r="D23">
-        <f>[1]WEST!$C$22</f>
-        <v>151</v>
-      </c>
-      <c r="E23">
-        <f>[1]WEST!$D$22</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f>MAX(C19:C23)</f>
-        <v>353</v>
-      </c>
-      <c r="D24">
-        <f>MAX(D19:D23)</f>
-        <v>249</v>
-      </c>
-      <c r="E24">
-        <f>MAX(E19:E23)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <f>EAST!$B$4</f>
-        <v>278</v>
-      </c>
-      <c r="D25">
-        <f>EAST!$C$4</f>
-        <v>177</v>
-      </c>
-      <c r="E25">
-        <f>EAST!$D$4</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <f>[1]WEST!$B$19</f>
-        <v>189</v>
-      </c>
-      <c r="D26">
-        <f>[1]WEST!$C$19</f>
-        <v>154</v>
-      </c>
-      <c r="E26">
-        <f>[1]WEST!$D$19</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <f>[1]WEST!$B$20</f>
-        <v>313</v>
-      </c>
-      <c r="D27">
-        <f>[1]WEST!$C$20</f>
-        <v>182</v>
-      </c>
-      <c r="E27">
-        <f>[1]WEST!$D$20</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <f>[1]WEST!$B$21</f>
-        <v>389</v>
-      </c>
-      <c r="D28">
-        <f>[1]WEST!$C$21</f>
-        <v>247</v>
-      </c>
-      <c r="E28">
-        <f>[1]WEST!$D$21</f>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <f>[1]WEST!$B$23</f>
-        <v>62</v>
-      </c>
-      <c r="D29">
-        <f>[1]WEST!$C$23</f>
-        <v>162</v>
-      </c>
-      <c r="E29">
-        <f>[1]WEST!$D$23</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <f>MAX(C25:C29)</f>
-        <v>389</v>
-      </c>
-      <c r="D30">
-        <f>MAX(D25:D29)</f>
-        <v>247</v>
-      </c>
-      <c r="E30">
-        <f>MAX(E25:E29)</f>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31">
-        <f>EAST!$B$5</f>
-        <v>156</v>
-      </c>
-      <c r="D31">
-        <f>EAST!$C$5</f>
-        <v>214</v>
-      </c>
-      <c r="E31">
-        <f>EAST!$D$5</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <f>EAST!$B$6</f>
-        <v>72</v>
-      </c>
-      <c r="D32">
-        <f>EAST!$C$6</f>
-        <v>134</v>
-      </c>
-      <c r="E32">
-        <f>EAST!$D$6</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <f>EAST!$B$7</f>
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <f>EAST!$C$7</f>
-        <v>256</v>
-      </c>
-      <c r="E33">
-        <f>EAST!$D$7</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C34">
-        <f>EAST!$B$17</f>
-        <v>-5</v>
-      </c>
-      <c r="D34">
-        <f>EAST!$C$17</f>
-        <v>159</v>
-      </c>
-      <c r="E34">
-        <f>EAST!$D$17</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35">
-        <f>[1]WEST!$B$6</f>
-        <v>162</v>
-      </c>
-      <c r="D35">
-        <f>[1]WEST!$C$6</f>
-        <v>74</v>
-      </c>
-      <c r="E35">
-        <f>[1]WEST!$D$6</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C36">
-        <f>[1]WEST!$B$7</f>
-        <v>90</v>
-      </c>
-      <c r="D36">
-        <f>[1]WEST!$C$7</f>
-        <v>150</v>
-      </c>
-      <c r="E36">
-        <f>[1]WEST!$D$7</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C37">
-        <f>[1]WEST!$B$8</f>
-        <v>112</v>
-      </c>
-      <c r="D37">
-        <f>[1]WEST!$C$8</f>
-        <v>284</v>
-      </c>
-      <c r="E37">
-        <f>[1]WEST!$D$8</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C38">
-        <f>[1]WEST!$B$24</f>
-        <v>173</v>
-      </c>
-      <c r="D38">
-        <f>[1]WEST!$C$24</f>
-        <v>153</v>
-      </c>
-      <c r="E38">
-        <f>[1]WEST!$D$24</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <f>MAX(C31:C38)</f>
-        <v>173</v>
-      </c>
-      <c r="D39">
-        <f>MAX(D31:D38)</f>
-        <v>284</v>
-      </c>
-      <c r="E39">
-        <f>MAX(E31:E38)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <f>EAST!$B$12</f>
-        <v>25</v>
-      </c>
-      <c r="D40">
-        <f>EAST!$C$12</f>
-        <v>120</v>
-      </c>
-      <c r="E40">
-        <f>EAST!$D$12</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C41">
-        <f>EAST!$B$13</f>
-        <v>197</v>
-      </c>
-      <c r="D41">
-        <f>EAST!$C$13</f>
-        <v>90</v>
-      </c>
-      <c r="E41">
-        <f>EAST!$D$13</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C42">
-        <f>EAST!$B$14</f>
-        <v>221</v>
-      </c>
-      <c r="D42">
-        <f>EAST!$C$14</f>
-        <v>121</v>
-      </c>
-      <c r="E42">
-        <f>EAST!$D$14</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C43">
-        <f>EAST!$B$18</f>
-        <v>136</v>
-      </c>
-      <c r="D43">
-        <f>EAST!$C$18</f>
-        <v>152</v>
-      </c>
-      <c r="E43">
-        <f>EAST!$D$18</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <f>MAX(C40:C43)</f>
-        <v>221</v>
-      </c>
-      <c r="D44">
-        <f>MAX(D40:D43)</f>
-        <v>152</v>
-      </c>
-      <c r="E44">
-        <f>MAX(E40:E43)</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45">
-        <f>EAST!$B$16</f>
-        <v>13</v>
-      </c>
-      <c r="D45">
-        <f>EAST!$C$16</f>
-        <v>250</v>
-      </c>
-      <c r="E45">
-        <f>EAST!$D$16</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <f>[1]WEST!$B$9</f>
-        <v>154</v>
-      </c>
-      <c r="D46">
-        <f>[1]WEST!$C$9</f>
-        <v>217</v>
-      </c>
-      <c r="E46">
-        <f>[1]WEST!$D$9</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C47">
-        <f>[1]WEST!$B$10</f>
-        <v>152</v>
-      </c>
-      <c r="D47">
-        <f>[1]WEST!$C$10</f>
-        <v>200</v>
-      </c>
-      <c r="E47">
-        <f>[1]WEST!$D$10</f>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C48">
-        <f>[1]WEST!$B$11</f>
-        <v>277</v>
-      </c>
-      <c r="D48">
-        <f>[1]WEST!$C$11</f>
-        <v>183</v>
-      </c>
-      <c r="E48">
-        <f>[1]WEST!$D$11</f>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <f>MAX(C45:C48)</f>
-        <v>277</v>
-      </c>
-      <c r="D49">
-        <f>MAX(D45:D48)</f>
-        <v>250</v>
-      </c>
-      <c r="E49">
-        <f>MAX(E45:E48)</f>
-        <v>372</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate function="max" leftLabels="1" topLabels="1" link="1">
-    <dataRefs count="2">
-      <dataRef ref="A1:D18" sheet="EAST"/>
-      <dataRef ref="A1:D24" sheet="WEST" r:id="rId1"/>
-    </dataRefs>
-  </dataConsolidate>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -1996,24 +2825,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BA305B-FBAA-418D-9BFC-8AF4BFBB00ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6142D841-B935-4645-AF83-39867031DF81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA7D02F8-B6C4-4A78-B769-6A9E5D226FC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2028,21 +2857,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6142D841-B935-4645-AF83-39867031DF81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BA305B-FBAA-418D-9BFC-8AF4BFBB00ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>